--- a/biology/Botanique/Salix_humboldtiana/Salix_humboldtiana.xlsx
+++ b/biology/Botanique/Salix_humboldtiana/Salix_humboldtiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saule de Humboldt
-Salix humboldtiana, le saule de Humboldt[2] (en espagnol : sauce), est une espèce de saule originaire d'Amérique du Nord et d'Amérique du Sud, rencontrée dans les régions naturelles, le long des cours d'eau.
+Salix humboldtiana, le saule de Humboldt (en espagnol : sauce), est une espèce de saule originaire d'Amérique du Nord et d'Amérique du Sud, rencontrée dans les régions naturelles, le long des cours d'eau.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix humboldtiana est un arbre atteignant 25 mètres de haut avec une étroite couronne de forme triangulaire ou colonnaire[3].
-Le tronc atteint, à son maximum, un diamètre de 80 cm de diamètre et possède une écorce brun foncé à gris avec des fissures[3],[4]. Ses feuilles lancéolées sont étroites et font jusqu'à 15 cm de long, avec une bordure dentée et une couleur vert clair[3]. Les chatons mesurent de 4 à 10 cm de  long ; les fleurs mâles, d'un vert jaunâtre, possèdent une bractée ovalo-lancéolée et six étamines. Les fleurs femelles sont vertes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix humboldtiana est un arbre atteignant 25 mètres de haut avec une étroite couronne de forme triangulaire ou colonnaire.
+Le tronc atteint, à son maximum, un diamètre de 80 cm de diamètre et possède une écorce brun foncé à gris avec des fissures,. Ses feuilles lancéolées sont étroites et font jusqu'à 15 cm de long, avec une bordure dentée et une couleur vert clair. Les chatons mesurent de 4 à 10 cm de  long ; les fleurs mâles, d'un vert jaunâtre, possèdent une bractée ovalo-lancéolée et six étamines. Les fleurs femelles sont vertes.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région d'origine de  Salix humboldtiana s'étend du centre du Mexique au centre du Chili et l'Argentine, dans des secteurs au climat tropical, subtropical ou même tempéré, du niveau de la mer à 3 300 m d'altitude[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région d'origine de  Salix humboldtiana s'étend du centre du Mexique au centre du Chili et l'Argentine, dans des secteurs au climat tropical, subtropical ou même tempéré, du niveau de la mer à 3 300 m d'altitude,.
 </t>
         </is>
       </c>
